--- a/게시판/게시판데이터-테이블명세(2023-02-02).xlsx
+++ b/게시판/게시판데이터-테이블명세(2023-02-02).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505004\Documents\workspace\DBMS\게시판\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08F9E3-B864-4265-9A9B-7556B34285BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BAAEE-6A97-4C17-ABC9-AA7B465CD0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="테이블명세 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="게시판 데이터" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_nickname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b_pseq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,6 +270,42 @@
   </si>
   <si>
     <t>090-3333-3333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,9 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1930,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
@@ -1942,7 +1971,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>27</v>
@@ -1955,15 +1984,17 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -1976,9 +2007,11 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>28</v>
@@ -1997,9 +2030,11 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>30</v>
@@ -2018,9 +2053,11 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>39</v>
@@ -2040,15 +2077,9 @@
         <v>6</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="10"/>
@@ -2060,9 +2091,11 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>32</v>
@@ -2081,9 +2114,11 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>33</v>
@@ -2102,9 +2137,11 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>35</v>
@@ -2123,9 +2160,11 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>37</v>
@@ -2399,50 +2438,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="39" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="39" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2455,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEF4EA8-D1A3-4B3E-8D09-2E4CB5651B0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3204,19 +3243,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3228,16 +3267,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -3251,16 +3290,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -3609,12 +3648,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
